--- a/In-Vitro At-Home Test V2 FHIR Mapping.xlsx
+++ b/In-Vitro At-Home Test V2 FHIR Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minigrrl\Dropbox\12_SourceControl\GitHub\HL7\FHIR\home-lab-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F81564-C42F-404A-849A-A6B4C5CD7927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F8EBBF-45DC-470F-BD6E-88C1E46E6A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1956,8 +1956,8 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G197" sqref="G197"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
